--- a/Git_manual_20170404.xlsx
+++ b/Git_manual_20170404.xlsx
@@ -4,45 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Github" sheetId="13" r:id="rId1"/>
+    <sheet name="GitHub 가입" sheetId="13" r:id="rId1"/>
+    <sheet name="GitHub Local 설정" sheetId="14" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'GitHub Local 설정'!$A$1:$L$320</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'GitHub 가입'!$A$1:$P$140</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>1. https://github.com/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ArvidJoung</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gun.joung@gmail.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ilovehwa0311</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. Continue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. submit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. 등록된 e-mail로 verify mail check</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>5. Repository 생성</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,51 +37,147 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1. Local에 clone folder 생성 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 탐색기에서 Git Clone 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. TortoiseGit에서 아래와 같이 Repository URL 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. Local 대상 folder에서 Github에 올릴 Data를 Copy 후, Git Commit를 선택한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5. Message를 등록하고, Push할 file를 선택 후 OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6. 정상적으로 commit이 완려되면 아래와 같은 화면이 나옴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7. commit된 file를 Push하기 위해 대상 폴더에서 Git Sync를 선택함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8. Sync 화면에서 GitHub의 URL 확인을 위해서는 Manage를 선택함. 불필요한 경우 Push 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Manage 화면의 URL 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9. Data를 Pull 및 Push하는 경우 Pull/Push 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10. username, PW 입력 화면에서 GitHub ID,PW 기입 후 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11. Push 성공시 화면와 같은 화면이 나옴</t>
+    <t>1. https://github.com/에서 Username, ID, Pw를 입력하여 가입한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 무료인 Unlimited public repositories for free를 선택 후 Continue click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 각 필요 항목을 선택 후 [Submit] click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 등록된 e-mail로 verify e-mail이 수신되며, 메일의 verify link를 click한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Repository name 기입하고, 무료인 Public 선택 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GitHub 가입 방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. New repository 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 생성하고자 하는 Repository name을 기입 및 무료인 Public 선택 후 [Create repository] click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GitHub에 Repository 생성 방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local에 GitHub Clone 생성 방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Local에 GitHub clone들을 관리할 root folder 생성 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 탐색기에서 Git Clone을 생성할 folder를 선택 후 Mouse popup에서 [Git Clone] 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존 folder에 clone 설정시 Skip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Git clone 설정화면에서 아래와 같이 설정한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL : GitHub의 Repository URL 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Directory : Clone을 생성할 directory 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. OK를 선택하면 아래와 같이 Progress 창이 뜨고, 완료 후 Local Directory에 Clone이 생성됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ex) VHDL_work 기입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ex) Github_work folder 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. Clone을 생성한 folder에 Github에 올릴 Data를 Copy 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. Clone을 생성한 folder를 선택 후, Mouse Popup에서 Git Commit를 선택한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ex) Terasic_Study folder를 VHDL_work folder에 copy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. Commit할 file를 선택하고, Message를 기입한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8. Commit이 정상적으로 처리가 되면 아래와 같은 화면이 나온다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9. Commit된 내용을 Push하기 위해 아래와 같이 Git Sync를 진행함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mouse Popup하여 Git Sync를 선택한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Push할 대상 clone folder를 선택한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10. Git Sync 화면에서 Push할 GitHub의 URL를 확인하기 위해 [Manage]를 선택한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11. Remote의 origin을 선택하여 URL에 GitHub의 Target URL이 제대로 설정되어 있는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">12. Git Sync 화면에서 Push를 선택하여 Local의 data를 GitHub에 Push한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13. Push 진행중 username, PW 입력 화면이 나오면 GitHub ID,PW 기입한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14. Push 성공시 화면와 같은 화면이 나옴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15. 이후 Clone folder내 변경사항을 GitHub에 Push하기 위해서는 Step 6에서부터 진행하면 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>즉, Commit 후 Sync 진행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16. Pull의 경우, Step 9에서 부터 진행하면 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>즉, Sync에서 Pull를 선택함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -112,7 +185,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +206,33 @@
       <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -157,9 +257,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -188,15 +291,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -243,15 +346,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -298,15 +401,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -353,16 +456,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>143</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>142667</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -386,8 +489,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1514475" y="22679025"/>
-          <a:ext cx="9686925" cy="7429500"/>
+          <a:off x="1485901" y="22050376"/>
+          <a:ext cx="5314949" cy="4076491"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -408,16 +511,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>146</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>354786</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>186</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>603218</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>59621</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -441,8 +544,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1371600" y="30594300"/>
-          <a:ext cx="9839325" cy="8467725"/>
+          <a:off x="5907861" y="25641300"/>
+          <a:ext cx="4363232" cy="3755321"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -461,28 +564,33 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>192</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>74545</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>57979</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>227</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>463827</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>211334</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="그림 11"/>
+        <xdr:cNvPr id="9" name="그림 8"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -496,118 +604,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1371600" y="40233600"/>
-          <a:ext cx="3781425" cy="7353300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>229</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>246</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="그림 14"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1371600" y="47986950"/>
-          <a:ext cx="5248275" cy="3733800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>229</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>250</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="그림 16"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6858000" y="47986950"/>
-          <a:ext cx="5991225" cy="4552950"/>
+          <a:off x="679175" y="22006892"/>
+          <a:ext cx="4514022" cy="3383572"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -629,25 +627,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>253</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:colOff>66260</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>82826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>290</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457664</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>198782</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="그림 18"/>
+        <xdr:cNvPr id="11" name="그림 10"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -661,8 +659,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2057400" y="53216175"/>
-          <a:ext cx="4352925" cy="7705725"/>
+          <a:off x="670890" y="32815696"/>
+          <a:ext cx="5203600" cy="3992217"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -683,26 +681,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>293</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>24021</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>81169</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>321</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>488675</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>202222</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="그림 20"/>
+        <xdr:cNvPr id="12" name="그림 11"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -716,8 +714,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1371600" y="61398150"/>
-          <a:ext cx="7600950" cy="5915025"/>
+          <a:off x="628651" y="37336343"/>
+          <a:ext cx="5276850" cy="3997314"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -738,26 +736,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>323</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>108088</xdr:colOff>
+      <xdr:row>280</xdr:row>
+      <xdr:rowOff>89453</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>345</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>403363</xdr:colOff>
+      <xdr:row>300</xdr:row>
+      <xdr:rowOff>159439</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="그림 22"/>
+        <xdr:cNvPr id="16" name="그림 15"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -771,8 +769,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1428750" y="67798950"/>
-          <a:ext cx="5962650" cy="4581525"/>
+          <a:off x="712718" y="60171496"/>
+          <a:ext cx="5794928" cy="4376943"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -791,224 +789,1393 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>348</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6594</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>79132</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>620345</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>21982</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="24" name="그룹 23"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="611224" y="725175"/>
+          <a:ext cx="6113404" cy="3173068"/>
+          <a:chOff x="629383" y="482113"/>
+          <a:chExt cx="6123597" cy="3130061"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="19" name="그림 18"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="629383" y="482113"/>
+            <a:ext cx="6123597" cy="3130061"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="모서리가 둥근 직사각형 22"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5932611" y="2107956"/>
+            <a:ext cx="745881" cy="291611"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>26442</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>97163</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>290210</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>10410</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="28" name="그룹 27"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="631072" y="4619467"/>
+          <a:ext cx="4388508" cy="3574160"/>
+          <a:chOff x="630117" y="3905252"/>
+          <a:chExt cx="4396152" cy="3528287"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="22" name="그림 21"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="630117" y="3905252"/>
+            <a:ext cx="4396152" cy="3528287"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="25" name="모서리가 둥근 직사각형 24"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1673471" y="4558079"/>
+            <a:ext cx="1638298" cy="424229"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="26" name="모서리가 둥근 직사각형 25"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="684336" y="5664444"/>
+            <a:ext cx="2378318" cy="350960"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="27" name="모서리가 둥근 직사각형 26"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="713643" y="7129829"/>
+            <a:ext cx="920261" cy="291611"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>58615</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>65944</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>370</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:colOff>109902</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>102961</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="그림 24"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="32" name="그룹 31"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="663245" y="9325901"/>
+          <a:ext cx="3488570" cy="2190495"/>
+          <a:chOff x="659423" y="9627579"/>
+          <a:chExt cx="3494941" cy="2161824"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="30" name="그림 29"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="659423" y="9627579"/>
+            <a:ext cx="3494941" cy="2161824"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
           <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
             </a:ext>
           </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1371600" y="72923400"/>
-          <a:ext cx="4610100" cy="4810125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="31" name="모서리가 둥근 직사각형 30"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="713643" y="11467367"/>
+            <a:ext cx="1630972" cy="197095"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>374</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>65941</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>87923</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>397</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>273293</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>164123</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="그림 26"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="36" name="그룹 35"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="670571" y="12147401"/>
+          <a:ext cx="3644635" cy="4598505"/>
+          <a:chOff x="666749" y="12411808"/>
+          <a:chExt cx="3651006" cy="4538296"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="34" name="그림 33"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="666749" y="12411808"/>
+            <a:ext cx="3651006" cy="4538296"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
           <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
             </a:ext>
           </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7629525" y="78466950"/>
-          <a:ext cx="7505700" cy="4924425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="35" name="모서리가 둥근 직사각형 34"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1563566" y="16068675"/>
+            <a:ext cx="2576146" cy="291611"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>374</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>92702</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>76774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>395</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>505239</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>150541</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="그림 28"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="그룹 1"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="697332" y="17735296"/>
+          <a:ext cx="4537277" cy="3303984"/>
+          <a:chOff x="697332" y="18505578"/>
+          <a:chExt cx="4537277" cy="3179746"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="8" name="그림 7"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="697332" y="18505578"/>
+            <a:ext cx="4537277" cy="3179746"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
           <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
             </a:ext>
           </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1447800" y="78457425"/>
-          <a:ext cx="5772150" cy="4419600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="29" name="모서리가 둥근 직사각형 28"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="938544" y="19004542"/>
+            <a:ext cx="3177910" cy="286195"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="33" name="모서리가 둥근 직사각형 32"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="941859" y="19314312"/>
+            <a:ext cx="3177910" cy="286195"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>399</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>99392</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>82827</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>420</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>405848</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>121674</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="그림 30"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="3" name="그룹 2"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="704022" y="25709218"/>
+          <a:ext cx="5806109" cy="2623021"/>
+          <a:chOff x="704022" y="25493870"/>
+          <a:chExt cx="5806109" cy="2623021"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="40" name="그림 39"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="704022" y="25493870"/>
+            <a:ext cx="5806109" cy="2623021"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
           <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
             </a:ext>
           </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="41" name="모서리가 둥근 직사각형 40"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3870590" y="26487782"/>
+            <a:ext cx="1322606" cy="240195"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>99393</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>91110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>115958</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>47375</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="그룹 4"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1438275" y="83724750"/>
-          <a:ext cx="5781675" cy="4429125"/>
+          <a:off x="704023" y="28947719"/>
+          <a:ext cx="3453848" cy="3401830"/>
+          <a:chOff x="1076740" y="28748936"/>
+          <a:chExt cx="3453848" cy="3401830"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="38" name="그림 37"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1076740" y="28748936"/>
+            <a:ext cx="3453848" cy="3401830"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="모서리가 둥근 직사각형 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1639957" y="31755524"/>
+            <a:ext cx="2078934" cy="240194"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>149087</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>91108</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>231913</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>53483</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="7" name="그룹 6"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="753717" y="42514630"/>
+          <a:ext cx="3520109" cy="3623288"/>
+          <a:chOff x="687456" y="42357261"/>
+          <a:chExt cx="4620040" cy="4755460"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="13" name="그림 12"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="687456" y="42357261"/>
+            <a:ext cx="4620040" cy="4755460"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="모서리가 둥근 직사각형 5"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1441174" y="45985043"/>
+            <a:ext cx="2559326" cy="223631"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>134179</xdr:colOff>
+      <xdr:row>256</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>173934</xdr:colOff>
+      <xdr:row>275</xdr:row>
+      <xdr:rowOff>182218</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="10" name="그룹 9"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="738809" y="55214769"/>
+          <a:ext cx="5539408" cy="4188101"/>
+          <a:chOff x="713961" y="46559443"/>
+          <a:chExt cx="4835387" cy="3650250"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="15" name="그림 14"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="713961" y="46559443"/>
+            <a:ext cx="4835387" cy="3650250"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="37" name="모서리가 둥근 직사각형 36"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1764196" y="49505152"/>
+            <a:ext cx="944217" cy="231913"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>162341</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>72473</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>16565</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>149087</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="17" name="그룹 16"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="766971" y="46587603"/>
+          <a:ext cx="5353877" cy="3952875"/>
+          <a:chOff x="766971" y="46372256"/>
+          <a:chExt cx="4835387" cy="3650250"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="39" name="그림 38"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="766971" y="46372256"/>
+            <a:ext cx="4835387" cy="3650250"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="42" name="모서리가 둥근 직사각형 41"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4704522" y="46965292"/>
+            <a:ext cx="780222" cy="231913"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>168552</xdr:colOff>
+      <xdr:row>237</xdr:row>
+      <xdr:rowOff>70402</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>103946</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>140805</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="18" name="그룹 17"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="773182" y="51107837"/>
+          <a:ext cx="5435047" cy="3515968"/>
+          <a:chOff x="773182" y="50892489"/>
+          <a:chExt cx="5435047" cy="3515968"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="14" name="그림 13"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="773182" y="50892489"/>
+            <a:ext cx="5435047" cy="3515968"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="43" name="모서리가 둥근 직사각형 42"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3538330" y="51686380"/>
+            <a:ext cx="2474844" cy="220730"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1301,134 +2468,262 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L399"/>
+  <dimension ref="B1:M121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q40" sqref="Q40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.25" customWidth="1"/>
+    <col min="2" max="2" width="6" customWidth="1"/>
+    <col min="3" max="3" width="9" style="2"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+    <row r="1" spans="2:3" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C32" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C70" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C71" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
+    <row r="72" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D72" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C103" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C4" s="1" t="s">
+    <row r="104" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D104" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C5" s="1" t="s">
+    <row r="121" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M121" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B74" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B75" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B107" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C108" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C146" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B191" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B192" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B229" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B253" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="293" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B293" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="323" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B323" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="347" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B347" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="373" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B373" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="374" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B374" t="s">
-        <v>20</v>
-      </c>
-      <c r="L374" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="398" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B398" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="399" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B399" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
-    <hyperlink ref="C108" r:id="rId2" display="https://github.com/ArvidJoung/VHDL_work"/>
+    <hyperlink ref="D104" r:id="rId1" display="https://github.com/ArvidJoung/VHDL_work"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="76" orientation="landscape" r:id="rId2"/>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="31" max="15" man="1"/>
+    <brk id="102" max="15" man="1"/>
+  </rowBreaks>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="16" max="1048575" man="1"/>
+  </colBreaks>
   <drawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D307"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A160" zoomScale="115" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="J205" sqref="J205"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="1.75" customWidth="1"/>
+    <col min="2" max="2" width="3.125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B1" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B40" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C80" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D81" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D82" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C99" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C118" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="119" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D119" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C134" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C153" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="174" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C174" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="195" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C195" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="196" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D196" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="197" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D197" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="216" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C216" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="237" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C237" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="256" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C256" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="279" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C279" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="280" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C280" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="303" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C303" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="304" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D304" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="306" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C306" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="307" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D307" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <rowBreaks count="4" manualBreakCount="4">
+    <brk id="39" max="11" man="1"/>
+    <brk id="79" max="11" man="1"/>
+    <brk id="117" max="11" man="1"/>
+    <brk id="152" max="11" man="1"/>
+  </rowBreaks>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Git_manual_20170404.xlsx
+++ b/Git_manual_20170404.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="GitHub 가입" sheetId="13" r:id="rId1"/>
     <sheet name="GitHub Local 설정" sheetId="14" r:id="rId2"/>
+    <sheet name="Commit Log 확인 방법" sheetId="15" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Commit Log 확인 방법'!$A$1:$N$147</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'GitHub Local 설정'!$A$1:$L$320</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'GitHub 가입'!$A$1:$P$140</definedName>
   </definedNames>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>5. Repository 생성</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,6 +180,42 @@
   </si>
   <si>
     <t>즉, Sync에서 Pull를 선택함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Commit history를 보고자하는 대상 폴더를 선택한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. Mouse Popup -&gt; TortoiseGit -&gt; Show log 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 아래와 같이 Log messages 창이 실행되며, Commit history가 보임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Git Commit Log 보는 법 - TortoiseGit 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Git Commit Log 보는 법 - Source Tree 상용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Source Tree 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 탐색기에서 Clone 설정이 되어 있는 folder를 선택 및 drag하여 SourceTree의 탐색기 창에 추가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 탐색기 창에 folder가 추가되고, 이를 선택하면, 아래와 같이 commit Log를 확인 할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 이후 SourceTree를 사용하여 Git 관리(commit, push, pull)가 가능한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2181,6 +2219,667 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67408</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>55685</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>531681</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>84259</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="7" name="그룹 6"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="939312" y="905608"/>
+          <a:ext cx="6677504" cy="3853228"/>
+          <a:chOff x="910004" y="964224"/>
+          <a:chExt cx="6677504" cy="3853228"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="그림 2"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="910004" y="964224"/>
+            <a:ext cx="6677504" cy="3853228"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="모서리가 둥근 직사각형 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3993173" y="1809750"/>
+            <a:ext cx="1033096" cy="215022"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="모서리가 둥근 직사각형 4"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4321420" y="4350727"/>
+            <a:ext cx="1033096" cy="215022"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="모서리가 둥근 직사각형 5"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5990493" y="3938954"/>
+            <a:ext cx="1321776" cy="215022"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>80597</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>432289</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>157515</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952501" y="5194789"/>
+          <a:ext cx="5876192" cy="4099399"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>39972</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>58615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>168519</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>27293</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="그림 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="911876" y="10895134"/>
+          <a:ext cx="4964316" cy="2943409"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>29308</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>73270</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>454269</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>141410</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="21" name="그룹 20"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="901212" y="14309482"/>
+          <a:ext cx="6638192" cy="5805120"/>
+          <a:chOff x="901212" y="14309482"/>
+          <a:chExt cx="6638192" cy="5805120"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="11" name="그림 10"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="901212" y="14309482"/>
+            <a:ext cx="4588849" cy="3011365"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="15" name="그림 14"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3333750" y="16003064"/>
+            <a:ext cx="4205654" cy="4111538"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="모서리가 둥근 직사각형 16"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3209192" y="14961578"/>
+            <a:ext cx="1033096" cy="175845"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="모서리가 둥근 직사각형 17"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3383573" y="18564959"/>
+            <a:ext cx="1877158" cy="257906"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="20" name="직선 화살표 연결선 19"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3890596" y="15181385"/>
+            <a:ext cx="417635" cy="3348403"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>39437</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>51289</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>564174</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>47641</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="27" name="그룹 26"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="911341" y="21086885"/>
+          <a:ext cx="6737968" cy="3396044"/>
+          <a:chOff x="925994" y="21079557"/>
+          <a:chExt cx="6737968" cy="3396044"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="23" name="그림 22"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="925994" y="21079557"/>
+            <a:ext cx="6737968" cy="3396044"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="25" name="모서리가 둥근 직사각형 24"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="930519" y="23182384"/>
+            <a:ext cx="1677866" cy="257906"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="26" name="모서리가 둥근 직사각형 25"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3779226" y="24199361"/>
+            <a:ext cx="800101" cy="199293"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -2553,8 +3252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D307"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A160" zoomScale="115" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="J205" sqref="J205"/>
+    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="N179" sqref="N179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -2726,4 +3425,71 @@
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C118"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="H153" sqref="H153"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.25" customWidth="1"/>
+    <col min="2" max="5" width="4.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B50" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C67" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C99" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C118" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="89" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>